--- a/public/ExcelTemplate.xlsx
+++ b/public/ExcelTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Akshay/MyScripts/JS/node/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9893CD1F-90C3-A045-A164-4FDA899254CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C783D80-B960-7C4A-A1C0-3A4F89B325A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Q</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>LODescription</t>
+  </si>
+  <si>
+    <t>Gradable</t>
   </si>
 </sst>
 </file>
@@ -56,12 +68,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0.00;\ \(\$#,##0.00\);\ \-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,44 +419,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -449,7 +479,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -460,7 +490,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -471,7 +501,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -482,7 +512,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -493,7 +523,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -504,7 +534,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -515,7 +545,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -526,7 +556,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -537,7 +567,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -548,7 +578,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -559,7 +589,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -570,7 +600,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -581,7 +611,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -592,7 +622,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
